--- a/projects/Week 1 Trellis Assignments.xlsx
+++ b/projects/Week 1 Trellis Assignments.xlsx
@@ -8,43 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cultivation\Records\2020\Trellising\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094A71F-6DB9-4355-8EBB-E2D542D538CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B71B5-8FC5-4F2E-BE45-00716B479BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Master" sheetId="3" r:id="rId2"/>
-    <sheet name="C36" sheetId="5" r:id="rId3"/>
-    <sheet name="C35" sheetId="4" r:id="rId4"/>
-    <sheet name="C34" sheetId="2" r:id="rId5"/>
+    <sheet name="C37" sheetId="6" r:id="rId3"/>
+    <sheet name="C36" sheetId="5" r:id="rId4"/>
+    <sheet name="C35" sheetId="4" r:id="rId5"/>
+    <sheet name="C34" sheetId="2" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'C35'!$A$1:$G$46,'C35'!$I$47:$M$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'C35'!$A$1:$G$46,'C35'!$I$47:$M$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="133">
   <si>
     <t>Pheno</t>
   </si>
@@ -401,6 +393,48 @@
   </si>
   <si>
     <t>C36</t>
+  </si>
+  <si>
+    <t>DURP</t>
+  </si>
+  <si>
+    <t>RAIN</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>SODA011</t>
+  </si>
+  <si>
+    <t>DOSI006</t>
+  </si>
+  <si>
+    <t>C37 F3</t>
+  </si>
+  <si>
+    <t>Trellis should be set slightly above canopy level (2-3 squares on PIPP rack). Plants should still be close enough to the trellis to be able to be trained outwards within the next week.</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>WU</t>
+  </si>
+  <si>
+    <t>XU</t>
+  </si>
+  <si>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>C37</t>
   </si>
 </sst>
 </file>
@@ -634,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -665,6 +699,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,66 +793,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -822,19 +834,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -877,6 +876,95 @@
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -945,6 +1033,54 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -975,6 +1111,9 @@
       <sheetName val="IDEAS"/>
       <sheetName val="TerpeneList"/>
       <sheetName val="PMindex"/>
+      <sheetName val="YieldBins"/>
+      <sheetName val="TimeBins"/>
+      <sheetName val="DryTimes"/>
       <sheetName val="RetiredPhenos2"/>
       <sheetName val="RetiredPhenos1"/>
       <sheetName val="FinalBins"/>
@@ -993,29 +1132,38 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C5D16CB-D095-40AF-8680-1AFEC5A781DA}" name="Table1" displayName="Table1" ref="I36:M61" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="I36:M61" xr:uid="{68F426A3-CC1A-467C-A8E2-8EEF8337CD31}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I37:M61">
-    <sortCondition ref="I36:I61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C5D16CB-D095-40AF-8680-1AFEC5A781DA}" name="Table1" displayName="Table1" ref="I36:M67" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="I36:M67" xr:uid="{68F426A3-CC1A-467C-A8E2-8EEF8337CD31}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I37:M58">
+    <sortCondition ref="I36:I58"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{376CD387-EA05-47D4-8823-02B0D3E605E4}" name="Pheno" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{233E6757-0992-45AB-833B-F0F0D72B47DB}" name="First Trellis" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{376CD387-EA05-47D4-8823-02B0D3E605E4}" name="Pheno" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{233E6757-0992-45AB-833B-F0F0D72B47DB}" name="First Trellis" dataDxfId="45">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3C595893-F398-4CAD-A8C3-E82A8A0087C1}" name="Early Second Trellis" dataDxfId="34">
+    <tableColumn id="3" xr3:uid="{3C595893-F398-4CAD-A8C3-E82A8A0087C1}" name="Early Second Trellis" dataDxfId="44">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4CC72A53-7B91-4B34-BCB3-006564C46808}" name="Second Trellis" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{4CC72A53-7B91-4B34-BCB3-006564C46808}" name="Second Trellis" dataDxfId="43">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1F06E638-5437-4C4F-B85E-1249A2174221}" name="Total Number of Trellises" dataDxfId="32">
+    <tableColumn id="5" xr3:uid="{1F06E638-5437-4C4F-B85E-1249A2174221}" name="Total Number of Trellises" dataDxfId="42">
       <calculatedColumnFormula>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1024,39 +1172,56 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2F53E16-1B70-4DD1-8E86-9F34816C4EF5}" name="Table3" displayName="Table3" ref="A1:F62" totalsRowShown="0">
-  <autoFilter ref="A1:F62" xr:uid="{B423106D-769A-4D64-B838-12C353A83734}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2F53E16-1B70-4DD1-8E86-9F34816C4EF5}" name="Table3" displayName="Table3" ref="A1:F93" totalsRowShown="0">
+  <autoFilter ref="A1:F93" xr:uid="{B423106D-769A-4D64-B838-12C353A83734}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6678B89B-798F-40FA-A09B-F1F57A4F74F0}" name="Generation"/>
     <tableColumn id="2" xr3:uid="{0E56BD63-CF30-4200-805B-4D7D494919C3}" name="Pheno"/>
     <tableColumn id="3" xr3:uid="{2E447B0A-FC97-4198-B227-75F724B4FFF6}" name="First Trellis"/>
     <tableColumn id="4" xr3:uid="{7BA2D8C8-7F78-4130-A4CB-A482CC188126}" name="Early Second Trellis"/>
     <tableColumn id="5" xr3:uid="{7DF45D9F-CC66-4B59-BCBE-6D10DB59AFEB}" name="Second Trellis"/>
-    <tableColumn id="6" xr3:uid="{1AEF7293-7B04-4CBD-9331-6B266EBB9E29}" name="Total Number of Trellises" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{1AEF7293-7B04-4CBD-9331-6B266EBB9E29}" name="Total Number of Trellises" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD83964D-022A-4425-8283-1BE9AB925B51}" name="Table16" displayName="Table16" ref="I36:M61" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="I36:M61" xr:uid="{68F426A3-CC1A-467C-A8E2-8EEF8337CD31}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I37:M61">
-    <sortCondition ref="I36:I61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E9C08D69-B92D-41A2-83F6-9D4B5D84E2DB}" name="Table17" displayName="Table17" ref="I36:M67" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="I36:M67" xr:uid="{68F426A3-CC1A-467C-A8E2-8EEF8337CD31}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I37:M58">
+    <sortCondition ref="I36:I58"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5B97AE71-E6C7-4E62-981B-B01067A2CCDE}" name="Pheno" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CFCB1D32-BCDF-4626-8799-BF4FC18E6518}" name="First Trellis" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{973E916E-E9D6-4E04-B73C-67220BF82805}" name="Early Second Trellis" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0128A003-7092-46F1-8D3B-4667CA57258C}" name="Second Trellis" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0114D1C6-7D7E-4545-B76A-651249B8FC0C}" name="Total Number of Trellises" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DAE3AD32-F6B2-45D9-9BC6-76120884AE94}" name="Pheno" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D7565C81-39B1-4FD0-BBB3-ED1EF94F9F4B}" name="First Trellis" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{55C511C4-B37F-43BA-A0A1-4E89D09CFA86}" name="Early Second Trellis" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{AD17D089-7196-46FC-B08A-CFBA645C7236}" name="Second Trellis" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{3DEC4C29-CBAF-4597-BA7A-B89FF0F04477}" name="Total Number of Trellises" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA82E998-91BA-4B44-9723-61742BF29770}" name="Table15" displayName="Table15" ref="I47:M76" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD83964D-022A-4425-8283-1BE9AB925B51}" name="Table16" displayName="Table16" ref="I36:M61" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="I36:M61" xr:uid="{68F426A3-CC1A-467C-A8E2-8EEF8337CD31}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I37:M61">
+    <sortCondition ref="I36:I61"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5B97AE71-E6C7-4E62-981B-B01067A2CCDE}" name="Pheno" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{CFCB1D32-BCDF-4626-8799-BF4FC18E6518}" name="First Trellis" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{973E916E-E9D6-4E04-B73C-67220BF82805}" name="Early Second Trellis" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{0128A003-7092-46F1-8D3B-4667CA57258C}" name="Second Trellis" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{0114D1C6-7D7E-4545-B76A-651249B8FC0C}" name="Total Number of Trellises" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA82E998-91BA-4B44-9723-61742BF29770}" name="Table15" displayName="Table15" ref="I47:M76" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="I47:M76" xr:uid="{68F426A3-CC1A-467C-A8E2-8EEF8337CD31}">
     <filterColumn colId="1">
       <customFilters>
@@ -1068,18 +1233,18 @@
     <sortCondition ref="I47:I69"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{27CC9455-13ED-4E64-AFED-8AEC56EA5995}" name="Pheno" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{87D1BE26-6655-4356-8A02-C3436F0CF737}" name="First Trellis" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{FA8B0CB6-1369-4309-9BE1-76FF5F676569}" name="Early Second Trellis" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{1285E440-E5FF-4CD4-858A-02B59478157B}" name="Second Trellis" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{7A382BF3-6AC0-4655-BEDF-417615EE14E7}" name="Total Number of Trellises" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{27CC9455-13ED-4E64-AFED-8AEC56EA5995}" name="Pheno" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{87D1BE26-6655-4356-8A02-C3436F0CF737}" name="First Trellis" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{FA8B0CB6-1369-4309-9BE1-76FF5F676569}" name="Early Second Trellis" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{1285E440-E5FF-4CD4-858A-02B59478157B}" name="Second Trellis" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{7A382BF3-6AC0-4655-BEDF-417615EE14E7}" name="Total Number of Trellises" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A2211754-369A-4109-ACCB-E6A9900E5B2A}" name="Table13" displayName="Table13" ref="I37:M59" totalsRowShown="0" headerRowDxfId="24">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A2211754-369A-4109-ACCB-E6A9900E5B2A}" name="Table13" displayName="Table13" ref="I37:M59" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="I37:M59" xr:uid="{68F426A3-CC1A-467C-A8E2-8EEF8337CD31}">
     <filterColumn colId="1">
       <customFilters>
@@ -1092,10 +1257,10 @@
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{60006803-CBA0-4DD5-9FC7-9331C9DE4E32}" name="Pheno"/>
-    <tableColumn id="2" xr3:uid="{4CE60D38-93E3-4101-95C1-08163902CCE1}" name="First Trellis" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{38AC1A30-05DA-4C22-9334-6C9C5762F44D}" name="Early Second Trellis" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{D24E3527-C4AD-450C-8DF7-606E35709DBD}" name="Second Trellis" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{E3C1F00A-C6CF-4922-879D-D174BE349AF5}" name="Total Number of Trellises" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{4CE60D38-93E3-4101-95C1-08163902CCE1}" name="First Trellis" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{38AC1A30-05DA-4C22-9334-6C9C5762F44D}" name="Early Second Trellis" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{D24E3527-C4AD-450C-8DF7-606E35709DBD}" name="Second Trellis" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{E3C1F00A-C6CF-4922-879D-D174BE349AF5}" name="Total Number of Trellises" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1367,44 +1532,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="6" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="25.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
-    <col min="10" max="10" width="44.453125" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" customWidth="1"/>
-    <col min="12" max="12" width="40.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
       <c r="B2" s="4">
         <v>5</v>
       </c>
@@ -1422,27 +1587,27 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>29</v>
@@ -1451,43 +1616,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -1495,215 +1660,215 @@
       <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1712,30 +1877,30 @@
       <c r="G15" s="6"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1744,311 +1909,311 @@
       <c r="G17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>50</v>
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>55</v>
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
       <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
+    <row r="27" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
-        <v>60</v>
+    <row r="31" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>61</v>
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
+    <row r="32" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>105</v>
@@ -2060,85 +2225,85 @@
         <v>62</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="5" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>63</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I36" s="9" t="s">
         <v>0</v>
       </c>
@@ -2155,8 +2320,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="I37" s="42" t="s">
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="10" t="str">
@@ -2176,8 +2341,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I38" s="42" t="s">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I38" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J38" s="10" t="str">
@@ -2197,13 +2362,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I39" s="42" t="s">
+    <row r="39" spans="1:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J39" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Trellis should be set slightly above canopy level (2-3 squares on PIPP rack).</v>
+        <v>Trellis should be set slightly above canopy level (2-3 squares on PIPP rack). Plants should still be close enough to the trellis to be able to be trained outwards within the next week.</v>
       </c>
       <c r="K39" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
@@ -2218,9 +2383,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I40" s="42" t="s">
-        <v>15</v>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I40" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="J40" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
@@ -2232,37 +2397,37 @@
       </c>
       <c r="L40" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>No second trellis</v>
-      </c>
-      <c r="M40" s="12">
+        <v>set trellis below the canopy, training the majority of branches</v>
+      </c>
+      <c r="M40" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I41" s="42" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="J41" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
+        <v/>
       </c>
       <c r="K41" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
+        <v/>
       </c>
       <c r="L41" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis above the canopy</v>
+        <v/>
       </c>
       <c r="M41" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I42" s="42" t="s">
-        <v>114</v>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="J42" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
@@ -2274,205 +2439,205 @@
       </c>
       <c r="L42" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis below the canopy, training the majority of branches</v>
+        <v>set trellis just in the canopy, training tall branches</v>
       </c>
       <c r="M42" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I43" s="42" t="s">
-        <v>14</v>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I43" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="J43" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>Set at canopy level</v>
       </c>
-      <c r="K43" s="10" t="str">
+      <c r="K43" s="10">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
-      </c>
-      <c r="L43" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis just in the canopy, training tall branches</v>
+        <v>0</v>
       </c>
       <c r="M43" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I44" s="42" t="s">
-        <v>18</v>
+    <row r="44" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="J44" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
-      </c>
-      <c r="K44" s="11">
+        <v>Trellis should be set slightly above canopy level (2-3 squares on PIPP rack). Plants should still be close enough to the trellis to be able to be trained outwards within the next week.</v>
+      </c>
+      <c r="K44" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
+        <v>no</v>
+      </c>
+      <c r="L44" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="12" t="str">
+        <v>No second trellis</v>
+      </c>
+      <c r="M44" s="12">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I45" s="42" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="J45" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
-      </c>
-      <c r="K45" s="11">
+        <v/>
+      </c>
+      <c r="K45" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="11">
+        <v/>
+      </c>
+      <c r="L45" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M45" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I46" s="42" t="s">
-        <v>20</v>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="J46" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
-      </c>
-      <c r="K46" s="10">
+        <v/>
+      </c>
+      <c r="K46" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="10">
+        <v/>
+      </c>
+      <c r="L46" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M46" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I47" s="42" t="s">
-        <v>3</v>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="J47" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Trellis should be set slightly above canopy level (2-3 squares on PIPP rack).</v>
+        <v/>
       </c>
       <c r="K47" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
+        <v/>
       </c>
       <c r="L47" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>No second trellis</v>
-      </c>
-      <c r="M47" s="12">
+        <v/>
+      </c>
+      <c r="M47" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I48" s="42" t="s">
-        <v>96</v>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="J48" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
+        <v/>
       </c>
       <c r="K48" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
+        <v/>
       </c>
       <c r="L48" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis just in the canopy, training tall branches</v>
-      </c>
-      <c r="M48" s="12">
+        <v/>
+      </c>
+      <c r="M48" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I49" s="42" t="s">
-        <v>34</v>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="J49" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
+        <v/>
       </c>
       <c r="K49" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
+        <v/>
       </c>
       <c r="L49" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis just in the canopy, training tall branches</v>
+        <v/>
       </c>
       <c r="M49" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="9:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="I50" s="42" t="s">
-        <v>9</v>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="J50" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
+        <v/>
       </c>
       <c r="K50" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>yes</v>
+        <v/>
       </c>
       <c r="L50" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set second trellis at slightly more than a hands length above the first, and add third trellis just into the canopy.</v>
-      </c>
-      <c r="M50" s="12">
+        <v/>
+      </c>
+      <c r="M50" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I51" s="42" t="s">
-        <v>11</v>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="J51" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
+        <v/>
       </c>
       <c r="K51" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
+        <v/>
       </c>
       <c r="L51" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis above the canopy</v>
+        <v/>
       </c>
       <c r="M51" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I52" s="42" t="s">
-        <v>10</v>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I52" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="J52" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
@@ -2484,16 +2649,16 @@
       </c>
       <c r="L52" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis below the canopy, training the majority of branches</v>
-      </c>
-      <c r="M52" s="12" t="str">
+        <v>set trellis just in the canopy, training tall branches</v>
+      </c>
+      <c r="M52" s="12">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="9:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="I53" s="42" t="s">
-        <v>6</v>
+    <row r="53" spans="9:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I53" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="J53" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
@@ -2505,177 +2670,303 @@
       </c>
       <c r="L53" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set second trellis at slightly more than the length of a forearm above the first, and add third trellis just above the canopy.</v>
+        <v>set second trellis at slightly more than a hands length above the first, and add third trellis just into the canopy.</v>
       </c>
       <c r="M53" s="12">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I54" s="42" t="s">
-        <v>13</v>
+    <row r="54" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="J54" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
+        <v/>
       </c>
       <c r="K54" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
+        <v/>
       </c>
       <c r="L54" s="10" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M54" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="K55" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L55" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M55" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L56" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M56" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="K57" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L57" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M57" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="9:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="K58" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L58" s="10" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M58" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="9:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>Set at canopy level</v>
+      </c>
+      <c r="K59" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>yes</v>
+      </c>
+      <c r="L59" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>set second trellis at slightly more than the length of a forearm above the first, and add third trellis just above the canopy.</v>
+      </c>
+      <c r="M59" s="12">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I60" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>Set at canopy level</v>
+      </c>
+      <c r="K60" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>no</v>
+      </c>
+      <c r="L60" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>set trellis above the canopy</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M60" s="12">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I55" s="42" t="s">
+    <row r="61" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I61" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="J55" s="10" t="str">
+      <c r="J61" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>Set at canopy level</v>
       </c>
-      <c r="K55" s="10" t="str">
+      <c r="K61" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>no</v>
       </c>
-      <c r="L55" s="10" t="str">
+      <c r="L61" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>set trellis just in the canopy, training tall branches</v>
       </c>
-      <c r="M55" s="12" t="str">
+      <c r="M61" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I56" s="42" t="s">
+    <row r="62" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I62" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="10" t="str">
+      <c r="J62" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>Set at canopy level</v>
       </c>
-      <c r="K56" s="10" t="str">
+      <c r="K62" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>no</v>
       </c>
-      <c r="L56" s="10" t="str">
+      <c r="L62" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>set trellis below the canopy, training the majority of branches</v>
       </c>
-      <c r="M56" s="12" t="str">
+      <c r="M62" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I57" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J57" s="10" t="str">
+    <row r="63" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L63" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M63" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I64" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J64" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>Set at canopy level</v>
       </c>
-      <c r="K57" s="10" t="str">
+      <c r="K64" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>no</v>
       </c>
-      <c r="L57" s="10" t="str">
+      <c r="L64" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>No second trellis</v>
-      </c>
-      <c r="M57" s="12">
+        <v>set trellis below the canopy, training the majority of branches</v>
+      </c>
+      <c r="M64" s="12" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I58" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J58" s="10" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="K65" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L65" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M65" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="9:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="I66" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>Set at canopy level</v>
       </c>
-      <c r="K58" s="10" t="str">
+      <c r="K66" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>yes</v>
+      </c>
+      <c r="L66" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>When setting second trellis early, set at a height that is a forearm-and-a-half above the first trellis. If setting trellis at week 3, set trellis just in the canopy, training tall branches</v>
+      </c>
+      <c r="M66" s="12" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I67" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="11" t="str">
+        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
+        <v>Set at canopy level</v>
+      </c>
+      <c r="K67" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>no</v>
       </c>
-      <c r="L58" s="10" t="str">
+      <c r="L67" s="11" t="str">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>set trellis below the canopy, training the majority of branches</v>
       </c>
-      <c r="M58" s="12" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="9:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I59" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
-      </c>
-      <c r="K59" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
-      </c>
-      <c r="L59" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis below the canopy, training the majority of branches</v>
-      </c>
-      <c r="M59" s="12" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="9:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="I60" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
-      </c>
-      <c r="K60" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>yes</v>
-      </c>
-      <c r="L60" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>When setting second trellis early, set at a height that is a forearm-and-a-half above the first trellis. If setting trellis at week 3, set trellis just in the canopy, training tall branches</v>
-      </c>
-      <c r="M60" s="12" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I61" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="J61" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[First Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>Set at canopy level</v>
-      </c>
-      <c r="K61" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Early Second],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>no</v>
-      </c>
-      <c r="L61" s="10" t="str">
-        <f>_xlfn.IFNA(INDEX([1]!Table3[Second and Third Trellis Instructions],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
-        <v>set trellis below the canopy, training the majority of branches</v>
-      </c>
-      <c r="M61" s="12">
+      <c r="M67" s="12">
         <f>_xlfn.IFNA(INDEX([1]!Table3[Number of Trellises],MATCH(Table1[[#This Row],[Pheno]],[1]!Table3[Phenotype],0)),"")</f>
         <v>2</v>
       </c>
@@ -2694,15 +2985,15 @@
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A31:A35"/>
   </mergeCells>
-  <conditionalFormatting sqref="I37:I61">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+  <conditionalFormatting sqref="I37:I67">
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F35">
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>VLOOKUP(B3, $I$37:$J$71,2,FALSE) &lt;&gt; "Set at canopy level"</formula>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>VLOOKUP(B3, $I$37:$J$68,2,FALSE) &lt;&gt; "Set at canopy level"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>VLOOKUP(B3,$I$37:$K$71,3,FALSE) = "yes"</formula>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>VLOOKUP(B3,$I$37:$K$68,3,FALSE) = "yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,22 +3006,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981F2805-DF01-4F3E-8B25-0EBDD8730D5B}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -2750,7 +3039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2770,7 +3059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -2790,7 +3079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2810,7 +3099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -2830,7 +3119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -2850,7 +3139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2870,7 +3159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2890,7 +3179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2910,7 +3199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -2930,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2950,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2970,7 +3259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -2986,11 +3275,11 @@
       <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -3010,7 +3299,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3030,7 +3319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3050,7 +3339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -3070,7 +3359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3090,7 +3379,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -3110,7 +3399,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -3130,7 +3419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -3150,7 +3439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3170,7 +3459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -3190,7 +3479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -3210,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3230,7 +3519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3250,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -3270,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -3290,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -3310,7 +3599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -3330,7 +3619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -3350,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -3370,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -3390,7 +3679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -3410,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -3430,7 +3719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -3450,7 +3739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -3470,7 +3759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -3490,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -3510,7 +3799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -3530,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -3550,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3570,7 +3859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -3590,7 +3879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -3610,7 +3899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -3630,7 +3919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -3650,7 +3939,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -3670,7 +3959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -3690,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -3710,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -3730,7 +4019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -3750,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -3770,7 +4059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -3790,7 +4079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -3810,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -3830,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -3850,7 +4139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -3870,7 +4159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -3890,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -3910,7 +4199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -3930,7 +4219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3950,7 +4239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -3970,8 +4259,631 @@
         <v>2</v>
       </c>
     </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="50">
+        <v>0</v>
+      </c>
+      <c r="E69" s="50">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B63:B93">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3981,48 +4893,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72743AE-7634-427A-ABC2-201107F5C8D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF150AC8-1D18-4A0E-AE8B-86D0ACED9FE6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="66" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I37" sqref="I37:M67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="6" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="25.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
-    <col min="10" max="10" width="44.453125" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" customWidth="1"/>
-    <col min="12" max="12" width="40.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
       <c r="B2" s="4">
         <v>5</v>
       </c>
@@ -4040,27 +4952,27 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>29</v>
@@ -4069,43 +4981,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -4113,215 +5025,215 @@
       <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4330,30 +5242,30 @@
       <c r="G15" s="6"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4362,311 +5274,310 @@
       <c r="G17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>50</v>
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
       <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
+    <row r="27" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
-        <v>60</v>
+    <row r="31" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
+    <row r="32" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>105</v>
@@ -4675,88 +5586,88 @@
         <v>105</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="5" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I36" s="9" t="s">
         <v>0</v>
       </c>
@@ -4773,8 +5684,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="I37" s="42" t="s">
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="10" t="s">
@@ -4790,8 +5701,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I38" s="42" t="s">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I38" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J38" s="10" t="s">
@@ -4807,12 +5718,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I39" s="42" t="s">
+    <row r="39" spans="1:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>75</v>
@@ -4824,9 +5735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I40" s="42" t="s">
-        <v>15</v>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I40" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>71</v>
@@ -4835,32 +5746,32 @@
         <v>75</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I41" s="42" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I41" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I42" s="42" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>71</v>
@@ -4869,168 +5780,168 @@
         <v>75</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M42" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I43" s="42" t="s">
-        <v>14</v>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I43" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>76</v>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I44" s="42" t="s">
-        <v>18</v>
+    <row r="44" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I45" s="42" t="s">
-        <v>19</v>
+        <v>126</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I45" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0</v>
-      </c>
-      <c r="L45" s="11">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I46" s="42" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I46" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0</v>
-      </c>
-      <c r="L46" s="10">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I47" s="42" t="s">
-        <v>3</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I47" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I48" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I48" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I49" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I50" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I51" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I52" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I49" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="9:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="I50" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M50" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I51" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I52" s="42" t="s">
-        <v>10</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>71</v>
@@ -5039,15 +5950,15 @@
         <v>75</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M52" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="9:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="I53" s="42" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="M52" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I53" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>71</v>
@@ -5056,145 +5967,247 @@
         <v>72</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M53" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I54" s="42" t="s">
+    <row r="54" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I54" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I55" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I56" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I57" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I58" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I60" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54" s="10" t="s">
+      <c r="J60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M60" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I55" s="42" t="s">
+    <row r="61" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I61" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55" s="10" t="s">
+      <c r="J61" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K61" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="M61" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I56" s="42" t="s">
+    <row r="62" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I62" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K56" s="10" t="s">
+      <c r="J62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="M62" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="9:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I57" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K57" s="10" t="s">
+    <row r="63" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I63" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I64" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L57" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M57" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I58" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K58" s="10" t="s">
+      <c r="L64" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I65" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="I66" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I67" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K67" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M58" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="9:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I59" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="9:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="I60" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="9:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="I61" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M61" s="12">
+      <c r="M67" s="12">
         <v>2</v>
       </c>
     </row>
@@ -5212,14 +6225,1265 @@
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <conditionalFormatting sqref="I37:I61">
+  <conditionalFormatting sqref="I37:I67">
     <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F35">
     <cfRule type="expression" dxfId="9" priority="2">
+      <formula>VLOOKUP(B3, $I$37:$J$68,2,FALSE) &lt;&gt; "Set at canopy level"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>VLOOKUP(B3,$I$37:$K$68,3,FALSE) = "yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="37" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72743AE-7634-427A-ABC2-201107F5C8D0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I47" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I53" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M54" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I55" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I57" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I58" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="I60" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I61" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M61" s="12">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="J32:L34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I37:I61">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F35">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>VLOOKUP(B3, $I$37:$J$71,2,FALSE) &lt;&gt; "Set at canopy level"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>VLOOKUP(B3,$I$37:$K$71,3,FALSE) = "yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5231,7 +7495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9C164-128D-48CA-8935-45ED9538CB69}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5242,88 +7506,88 @@
       <selection activeCell="I48" sqref="I48:M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="6" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="30.81640625" customWidth="1"/>
-    <col min="9" max="12" width="31.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="31.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -5341,8 +7605,8 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -5364,8 +7628,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -5385,8 +7649,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
@@ -5406,8 +7670,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
+    <row r="16" spans="1:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
@@ -5427,8 +7691,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21"/>
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -5448,8 +7712,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5471,8 +7735,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21"/>
+    <row r="19" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
@@ -5493,8 +7757,8 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
       <c r="B20" s="5" t="s">
         <v>54</v>
       </c>
@@ -5515,8 +7779,8 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
@@ -5537,8 +7801,8 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
@@ -5559,8 +7823,8 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5583,8 +7847,8 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
@@ -5605,8 +7869,8 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -5615,8 +7879,8 @@
       <c r="G25" s="6"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
       <c r="B26" s="5" t="s">
         <v>86</v>
       </c>
@@ -5637,8 +7901,8 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -5647,8 +7911,8 @@
       <c r="G27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
       <c r="B28" s="5" t="s">
         <v>86</v>
       </c>
@@ -5669,8 +7933,8 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
       <c r="B29" s="5" t="s">
         <v>86</v>
       </c>
@@ -5691,8 +7955,8 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5715,8 +7979,8 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="21"/>
+    <row r="31" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
       <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
@@ -5737,8 +8001,8 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
       <c r="B32" s="5" t="s">
         <v>105</v>
       </c>
@@ -5759,8 +8023,8 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
+    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="5" t="s">
         <v>104</v>
       </c>
@@ -5781,8 +8045,8 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
         <v>5</v>
       </c>
@@ -5803,8 +8067,8 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5827,8 +8091,8 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
+    <row r="36" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
       <c r="B36" s="5" t="s">
         <v>3</v>
       </c>
@@ -5849,8 +8113,8 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>105</v>
       </c>
@@ -5871,8 +8135,8 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="21"/>
+    <row r="38" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>104</v>
       </c>
@@ -5893,8 +8157,8 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="21"/>
+    <row r="39" spans="1:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
       <c r="B39" s="5" t="s">
         <v>5</v>
       </c>
@@ -5915,11 +8179,11 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:13" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="5.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5942,8 +8206,8 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="21"/>
+    <row r="42" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
       <c r="B42" s="5" t="s">
         <v>11</v>
       </c>
@@ -5964,8 +8228,8 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="21"/>
+    <row r="43" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
       <c r="B43" s="5" t="s">
         <v>13</v>
       </c>
@@ -5986,8 +8250,8 @@
       </c>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="21"/>
+    <row r="44" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
       <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
@@ -6008,8 +8272,8 @@
       </c>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
       <c r="B45" s="5" t="s">
         <v>103</v>
       </c>
@@ -6030,8 +8294,8 @@
       </c>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I47" s="9" t="s">
         <v>0</v>
       </c>
@@ -6048,7 +8312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="I48" s="2" t="s">
         <v>7</v>
       </c>
@@ -6065,7 +8329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I49" s="2" t="s">
         <v>86</v>
       </c>
@@ -6082,7 +8346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I50" s="2" t="s">
         <v>87</v>
       </c>
@@ -6099,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I51" s="2" t="s">
         <v>3</v>
       </c>
@@ -6116,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I52" s="2" t="s">
         <v>88</v>
       </c>
@@ -6133,7 +8397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I53" s="2" t="s">
         <v>89</v>
       </c>
@@ -6150,7 +8414,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I54" s="2" t="s">
         <v>90</v>
       </c>
@@ -6167,7 +8431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I55" s="2" t="s">
         <v>91</v>
       </c>
@@ -6184,7 +8448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6201,7 +8465,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I57" s="2" t="s">
         <v>93</v>
       </c>
@@ -6218,7 +8482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I58" s="2" t="s">
         <v>94</v>
       </c>
@@ -6235,7 +8499,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I59" s="2" t="s">
         <v>95</v>
       </c>
@@ -6252,7 +8516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I60" s="2" t="s">
         <v>96</v>
       </c>
@@ -6269,7 +8533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="9:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:13" ht="60" x14ac:dyDescent="0.25">
       <c r="I61" s="2" t="s">
         <v>9</v>
       </c>
@@ -6286,7 +8550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I62" s="2" t="s">
         <v>97</v>
       </c>
@@ -6303,7 +8567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I63" s="2" t="s">
         <v>98</v>
       </c>
@@ -6320,7 +8584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I64" s="2" t="s">
         <v>99</v>
       </c>
@@ -6337,7 +8601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I65" s="2" t="s">
         <v>100</v>
       </c>
@@ -6354,7 +8618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I66" s="2" t="s">
         <v>101</v>
       </c>
@@ -6371,7 +8635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I67" s="2" t="s">
         <v>102</v>
       </c>
@@ -6388,7 +8652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I68" s="2" t="s">
         <v>11</v>
       </c>
@@ -6405,7 +8669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="9:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I69" s="2" t="s">
         <v>10</v>
       </c>
@@ -6422,7 +8686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="9:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:13" ht="60" x14ac:dyDescent="0.25">
       <c r="I70" s="2" t="s">
         <v>6</v>
       </c>
@@ -6439,7 +8703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I71" s="2" t="s">
         <v>13</v>
       </c>
@@ -6456,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I72" s="2" t="s">
         <v>103</v>
       </c>
@@ -6473,7 +8737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I73" s="2" t="s">
         <v>104</v>
       </c>
@@ -6490,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I74" s="2" t="s">
         <v>5</v>
       </c>
@@ -6507,7 +8771,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="9:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:13" ht="90" x14ac:dyDescent="0.25">
       <c r="I75" s="2" t="s">
         <v>54</v>
       </c>
@@ -6524,7 +8788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I76" s="2" t="s">
         <v>105</v>
       </c>
@@ -6543,23 +8807,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:D6"/>
-    <mergeCell ref="A7:D9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A4:D6"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:F45">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>VLOOKUP(B13, $I$48:$J$85,2,FALSE) &lt;&gt; "Set at canopy level"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>VLOOKUP(B13,$I$48:$K$85,3,FALSE) = "yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6571,7 +8835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9098A9-E85C-4512-BE32-B79BF0A6E12D}">
   <dimension ref="A1:M59"/>
   <sheetViews>
@@ -6579,36 +8843,36 @@
       <selection activeCell="J29" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="6" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
-    <col min="10" max="10" width="43.1796875" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" customWidth="1"/>
-    <col min="12" max="12" width="40.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
       <c r="B2" s="4">
         <v>5</v>
       </c>
@@ -6627,8 +8891,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6653,8 +8917,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
@@ -6673,12 +8937,12 @@
       <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -6697,10 +8961,10 @@
       <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -6719,10 +8983,10 @@
       <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -6741,12 +9005,12 @@
       <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -6767,10 +9031,10 @@
       <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -6789,11 +9053,11 @@
       <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -6814,8 +9078,8 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -6836,8 +9100,8 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -6858,8 +9122,8 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -6882,8 +9146,8 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -6904,8 +9168,8 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -6914,8 +9178,8 @@
       <c r="G15" s="6"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6936,8 +9200,8 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -6946,8 +9210,8 @@
       <c r="G17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -6968,8 +9232,8 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
@@ -6990,8 +9254,8 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -7014,8 +9278,8 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
@@ -7036,8 +9300,8 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
@@ -7058,8 +9322,8 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
@@ -7080,8 +9344,8 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
@@ -7102,8 +9366,8 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -7126,8 +9390,8 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
       <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
@@ -7148,8 +9412,8 @@
       </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
+    <row r="27" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
@@ -7170,8 +9434,8 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
       <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
@@ -7192,8 +9456,8 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
@@ -7214,14 +9478,14 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -7244,8 +9508,8 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
+    <row r="33" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
@@ -7265,14 +9529,14 @@
         <v>62</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
       <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
@@ -7292,12 +9556,12 @@
         <v>63</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
       <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
@@ -7317,12 +9581,12 @@
         <v>64</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
       <c r="B36" s="5" t="s">
         <v>3</v>
       </c>
@@ -7343,7 +9607,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I37" s="9" t="s">
         <v>0</v>
       </c>
@@ -7360,7 +9624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>7</v>
       </c>
@@ -7377,7 +9641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>15</v>
       </c>
@@ -7394,7 +9658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>16</v>
       </c>
@@ -7411,7 +9675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>17</v>
       </c>
@@ -7428,7 +9692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>14</v>
       </c>
@@ -7445,7 +9709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>18</v>
       </c>
@@ -7462,7 +9726,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>19</v>
       </c>
@@ -7479,7 +9743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>20</v>
       </c>
@@ -7496,7 +9760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>3</v>
       </c>
@@ -7513,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
         <v>12</v>
       </c>
@@ -7530,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>9</v>
       </c>
@@ -7547,7 +9811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
         <v>11</v>
       </c>
@@ -7564,7 +9828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>10</v>
       </c>
@@ -7581,7 +9845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="9:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:13" ht="45" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>6</v>
       </c>
@@ -7598,7 +9862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I52" t="s">
         <v>13</v>
       </c>
@@ -7615,7 +9879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
         <v>21</v>
       </c>
@@ -7632,7 +9896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
         <v>22</v>
       </c>
@@ -7649,7 +9913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>23</v>
       </c>
@@ -7666,7 +9930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="9:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
         <v>24</v>
       </c>
@@ -7683,7 +9947,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>5</v>
       </c>
@@ -7700,7 +9964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="9:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:13" ht="30" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>4</v>
       </c>
@@ -7717,7 +9981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>8</v>
       </c>
@@ -7736,23 +10000,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="J33:L35"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="J33:L35"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:F36">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>VLOOKUP(B3, $I$38:$J$76,2,FALSE) &lt;&gt; "Set at canopy level"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>VLOOKUP(B3,$I$38:$K$76,3,FALSE) = "yes"</formula>
     </cfRule>
   </conditionalFormatting>
